--- a/queryPostgreSQLDBeaver_log2Larkbase_DIFY/src/backend/api/scripts/query_results/workflow_tools.xlsx
+++ b/queryPostgreSQLDBeaver_log2Larkbase_DIFY/src/backend/api/scripts/query_results/workflow_tools.xlsx
@@ -1096,13 +1096,13 @@
     <t>{"tool_info": {"provider_type": "workflow", "provider_id": "9bb6c2ba-f44a-4693-9246-78f63efacd89"}, "user_inputs": {"#1733764453822.text#": "Xin ch\u00e0o b\u00e9! D\u01b0\u1edbi \u0111\u00e2y l\u00e0 m\u1ed9t s\u1ed1 nguy\u00ean nh\u00e2n g\u00e2y ra v\u1ea5n \u0111\u1ec1 theo framework MECE:\n\n1. **Con ng\u01b0\u1eddi:**\n   - Thi\u1ebfu k\u1ef9 n\u0103ng giao ti\u1ebfp.\n   - Kh\u00f4ng c\u00f3 s\u1ef1 chu\u1ea9n b\u1ecb t\u00e2m l\u00fd cho tr\u1ebb.\n   - \u00c1p l\u1ef1c t\u1eeb m\u00f4i tr\u01b0\u1eddng xung quanh.\n\n2. **M\u00e1y m\u00f3c:**\n   - Thi\u1ebft b\u1ecb c\u00f4ng ngh\u1ec7 kh\u00f4ng ho\u1ea1t \u0111\u1ed9ng t\u1ed1t (v\u00ed d\u1ee5: m\u00e1y t\u00ednh, m\u00e1y chi\u1ebfu).\n   - Thi\u1ebfu c\u00f4ng c\u1ee5 h\u1ed7 tr\u1ee3 h\u1ecdc t\u1eadp.\n\n3. **M\u00f4i tr\u01b0\u1eddng:**\n   - Kh\u00f4ng gian h\u1ecdc t\u1eadp kh\u00f4ng tho\u1ea3i m\u00e1i.\n   - Thi\u1ebfu s\u1ef1 h\u1ed7 tr\u1ee3 t\u1eeb gia \u0111\u00ecnh ho\u1eb7c c\u1ed9ng \u0111\u1ed3ng.\n\n4. **Ch\u01b0\u01a1ng tr\u00ecnh h\u1ecdc:**\n   - N\u1ed9i dung ch\u01b0\u01a1ng tr\u00ecnh kh\u00f4ng ph\u00f9 h\u1ee3p v\u1edbi l\u1ee9a tu\u1ed5i.\n   - Thi\u1ebfu s\u1ef1 \u0111a d\u1ea1ng trong ph\u01b0\u01a1ng ph\u00e1p gi\u1ea3ng d\u1ea1y.\n\nH\u00e3y c\u00f9ng t\u00ecm hi\u1ec3u nguy\u00ean nh\u00e2n c\u1ed1t l\u00f5i c\u1ee7a v\u1ea5n \u0111\u1ec1 n\u00e0y qua b\u01b0\u1edbc d\u01b0\u1edbi \u0111\u00e2y nh\u00e9!"}, "rate": {"rating": 3, "updated_at": "2024-12-11 09:41:32", "account_id": "da8ab5b2-b5d0-460d-823b-856592af46ac"}}</t>
   </si>
   <si>
-    <t>{"tool_info": {"provider_type": "workflow", "provider_id": "3f7bf0a0-2cd3-4597-a57f-b11443194efb"}, "user_inputs": {"#1732873471087.problem_statement#": "New6"}, "rate": {"rating": 10, "updated_at": "2024-12-12 10:10:33", "account_id": "da8ab5b2-b5d0-460d-823b-856592af46ac"}}</t>
+    <t>{"tool_info": {"provider_type": "workflow", "provider_id": "3f7bf0a0-2cd3-4597-a57f-b11443194efb"}, "user_inputs": {"#1732873471087.problem_statement#": "New6"}, "rate": {"rating": 5, "updated_at": "2024-12-12 13:47:28", "account_id": "da8ab5b2-b5d0-460d-823b-856592af46ac"}}</t>
   </si>
   <si>
     <t>{"tool_info": {"provider_type": "workflow", "provider_id": "9bb6c2ba-f44a-4693-9246-78f63efacd89"}, "user_inputs": {"#1733764453822.text#": "V\u1ea5n \u0111\u1ec1 New6 c\u00f3 th\u1ec3 \u0111\u01b0\u1ee3c ph\u00e2n t\u00edch theo framework MECE (Mutually Exclusive, Collectively Exhaustive) nh\u01b0 sau:\n\n1. **Con ng\u01b0\u1eddi:**\n   - Thi\u1ebfu k\u1ef9 n\u0103ng ho\u1eb7c \u0111\u00e0o t\u1ea1o kh\u00f4ng \u0111\u1ea7y \u0111\u1ee7.\n   - Thi\u1ebfu s\u1ef1 ph\u1ed1i h\u1ee3p v\u00e0 giao ti\u1ebfp gi\u1eefa c\u00e1c ph\u00f2ng ban.\n   - Thi\u1ebfu \u0111\u1ed9ng l\u1ef1c l\u00e0m vi\u1ec7c ho\u1eb7c s\u1ef1 quan t\u00e2m \u0111\u1ebfn k\u1ebft qu\u1ea3.\n\n2. **M\u00e1y m\u00f3c:**\n   - Thi\u1ebft b\u1ecb c\u00f4ng ngh\u1ec7 l\u1ed7i th\u1eddi ho\u1eb7c kh\u00f4ng \u0111\u01b0\u1ee3c b\u1ea3o tr\u00ec \u0111\u00fang c\u00e1ch.\n   - Thi\u1ebfu c\u00f4ng ngh\u1ec7 t\u1ef1 \u0111\u1ed9ng h\u00f3a ho\u1eb7c h\u1ed7 tr\u1ee3.\n   - H\u1ec7 th\u1ed1ng ph\u1ea7n m\u1ec1m kh\u00f4ng t\u01b0\u01a1ng th\u00edch ho\u1eb7c g\u1eb7p s\u1ef1 c\u1ed1 th\u01b0\u1eddng xuy\u00ean.\n\n3. **Quy tr\u00ecnh:**\n   - Quy tr\u00ecnh l\u00e0m vi\u1ec7c kh\u00f4ng r\u00f5 r\u00e0ng ho\u1eb7c kh\u00f4ng \u0111\u01b0\u1ee3c tu\u00e2n th\u1ee7.\n   - Thi\u1ebfu s\u1ef1 chu\u1ea9n h\u00f3a trong c\u00e1c b\u01b0\u1edbc th\u1ef1c hi\u1ec7n.\n   - Quy tr\u00ecnh ph\u1ea3n h\u1ed3i v\u00e0 x\u1eed l\u00fd v\u1ea5n \u0111\u1ec1 kh\u00f4ng hi\u1ec7u qu\u1ea3.\n\n4. **M\u00f4i tr\u01b0\u1eddng:**\n   - \u00c1p l\u1ef1c t\u1eeb th\u1ecb tr\u01b0\u1eddng ho\u1eb7c \u0111\u1ed1i th\u1ee7 c\u1ea1nh tranh.\n   - Thay \u0111\u1ed5i trong quy \u0111\u1ecbnh ph\u00e1p l\u00fd ho\u1eb7c ch\u00ednh s\u00e1ch.\n   - T\u00ecnh h\u00ecnh kinh t\u1ebf kh\u00f4ng \u1ed5n \u0111\u1ecbnh \u1ea3nh h\u01b0\u1edfng \u0111\u1ebfn ho\u1ea1t \u0111\u1ed9ng.\n\nH\u00e3y c\u00f9ng t\u00ecm hi\u1ec3u nguy\u00ean nh\u00e2n c\u1ed1t l\u00f5i c\u1ee7a v\u1ea5n \u0111\u1ec1 n\u00e0y qua b\u01b0\u1edbc d\u01b0\u1edbi \u0111\u00e2y nh\u00e9."}}</t>
   </si>
   <si>
-    <t>{"tool_info": {"provider_type": "workflow", "provider_id": "3f7bf0a0-2cd3-4597-a57f-b11443194efb"}, "user_inputs": {"#1732873471087.problem_statement#": "New6"}, "rate": {"rating": 3, "updated_at": "2024-12-12 10:25:26", "account_id": "da8ab5b2-b5d0-460d-823b-856592af46ac"}}</t>
+    <t>{"tool_info": {"provider_type": "workflow", "provider_id": "3f7bf0a0-2cd3-4597-a57f-b11443194efb"}, "user_inputs": {"#1732873471087.problem_statement#": "New6"}, "rate": {"rating": 7, "updated_at": "2024-12-12 13:49:33", "account_id": "da8ab5b2-b5d0-460d-823b-856592af46ac"}}</t>
   </si>
   <si>
     <t>account</t>
@@ -1600,7 +1600,7 @@
         <v>294</v>
       </c>
       <c r="T2" s="2">
-        <v>45626.67936342592</v>
+        <v>45626.67936237268</v>
       </c>
       <c r="U2" t="s">
         <v>363</v>
@@ -1609,7 +1609,7 @@
         <v>364</v>
       </c>
       <c r="W2" s="2">
-        <v>45626.67936342592</v>
+        <v>45626.67936237268</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1662,7 +1662,7 @@
         <v>295</v>
       </c>
       <c r="T3" s="2">
-        <v>45626.67751157407</v>
+        <v>45626.67751409722</v>
       </c>
       <c r="U3" t="s">
         <v>363</v>
@@ -1671,7 +1671,7 @@
         <v>364</v>
       </c>
       <c r="W3" s="2">
-        <v>45626.67751157407</v>
+        <v>45626.67751409722</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1724,7 +1724,7 @@
         <v>296</v>
       </c>
       <c r="T4" s="2">
-        <v>45629.29768518519</v>
+        <v>45629.29768912037</v>
       </c>
       <c r="U4" t="s">
         <v>363</v>
@@ -1733,7 +1733,7 @@
         <v>364</v>
       </c>
       <c r="W4" s="2">
-        <v>45629.29768518519</v>
+        <v>45629.29768912037</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1786,7 +1786,7 @@
         <v>297</v>
       </c>
       <c r="T5" s="2">
-        <v>45626.67756944444</v>
+        <v>45626.67757030093</v>
       </c>
       <c r="U5" t="s">
         <v>363</v>
@@ -1795,7 +1795,7 @@
         <v>364</v>
       </c>
       <c r="W5" s="2">
-        <v>45626.67756944444</v>
+        <v>45626.67757030093</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1848,7 +1848,7 @@
         <v>298</v>
       </c>
       <c r="T6" s="2">
-        <v>45626.67930555555</v>
+        <v>45626.6793030324</v>
       </c>
       <c r="U6" t="s">
         <v>363</v>
@@ -1857,7 +1857,7 @@
         <v>364</v>
       </c>
       <c r="W6" s="2">
-        <v>45626.67930555555</v>
+        <v>45626.6793030324</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1910,7 +1910,7 @@
         <v>299</v>
       </c>
       <c r="T7" s="2">
-        <v>45626.67803240741</v>
+        <v>45626.67803015046</v>
       </c>
       <c r="U7" t="s">
         <v>363</v>
@@ -1919,7 +1919,7 @@
         <v>364</v>
       </c>
       <c r="W7" s="2">
-        <v>45626.67803240741</v>
+        <v>45626.67803015046</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1972,7 +1972,7 @@
         <v>300</v>
       </c>
       <c r="T8" s="2">
-        <v>45626.67839120371</v>
+        <v>45626.67839680555</v>
       </c>
       <c r="U8" t="s">
         <v>363</v>
@@ -1981,7 +1981,7 @@
         <v>364</v>
       </c>
       <c r="W8" s="2">
-        <v>45626.67839120371</v>
+        <v>45626.67839680555</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -2034,7 +2034,7 @@
         <v>294</v>
       </c>
       <c r="T9" s="2">
-        <v>45626.67967592592</v>
+        <v>45626.679674375</v>
       </c>
       <c r="U9" t="s">
         <v>363</v>
@@ -2043,7 +2043,7 @@
         <v>364</v>
       </c>
       <c r="W9" s="2">
-        <v>45626.67967592592</v>
+        <v>45626.679674375</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -2096,7 +2096,7 @@
         <v>301</v>
       </c>
       <c r="T10" s="2">
-        <v>45628.60604166667</v>
+        <v>45628.60604141204</v>
       </c>
       <c r="U10" t="s">
         <v>363</v>
@@ -2105,7 +2105,7 @@
         <v>364</v>
       </c>
       <c r="W10" s="2">
-        <v>45628.60604166667</v>
+        <v>45628.60604141204</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -2158,7 +2158,7 @@
         <v>302</v>
       </c>
       <c r="T11" s="2">
-        <v>45628.60609953704</v>
+        <v>45628.60609394676</v>
       </c>
       <c r="U11" t="s">
         <v>363</v>
@@ -2167,7 +2167,7 @@
         <v>364</v>
       </c>
       <c r="W11" s="2">
-        <v>45628.60609953704</v>
+        <v>45628.60609394676</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -2220,7 +2220,7 @@
         <v>302</v>
       </c>
       <c r="T12" s="2">
-        <v>45628.60628472222</v>
+        <v>45628.60627928241</v>
       </c>
       <c r="U12" t="s">
         <v>363</v>
@@ -2229,7 +2229,7 @@
         <v>364</v>
       </c>
       <c r="W12" s="2">
-        <v>45628.60628472222</v>
+        <v>45628.60627928241</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -2282,7 +2282,7 @@
         <v>303</v>
       </c>
       <c r="T13" s="2">
-        <v>45629.67240740741</v>
+        <v>45629.67241123843</v>
       </c>
       <c r="U13" t="s">
         <v>363</v>
@@ -2291,7 +2291,7 @@
         <v>364</v>
       </c>
       <c r="W13" s="2">
-        <v>45629.67240740741</v>
+        <v>45629.67241123843</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -2344,7 +2344,7 @@
         <v>304</v>
       </c>
       <c r="T14" s="2">
-        <v>45629.28854166667</v>
+        <v>45629.28854553241</v>
       </c>
       <c r="U14" t="s">
         <v>363</v>
@@ -2353,7 +2353,7 @@
         <v>364</v>
       </c>
       <c r="W14" s="2">
-        <v>45629.28854166667</v>
+        <v>45629.28854553241</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -2406,7 +2406,7 @@
         <v>305</v>
       </c>
       <c r="T15" s="2">
-        <v>45629.28925925926</v>
+        <v>45629.28925590278</v>
       </c>
       <c r="U15" t="s">
         <v>363</v>
@@ -2415,7 +2415,7 @@
         <v>364</v>
       </c>
       <c r="W15" s="2">
-        <v>45629.28925925926</v>
+        <v>45629.28925590278</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -2468,7 +2468,7 @@
         <v>306</v>
       </c>
       <c r="T16" s="2">
-        <v>45629.28929398148</v>
+        <v>45629.28929506944</v>
       </c>
       <c r="U16" t="s">
         <v>363</v>
@@ -2477,7 +2477,7 @@
         <v>364</v>
       </c>
       <c r="W16" s="2">
-        <v>45629.28929398148</v>
+        <v>45629.28929508102</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2530,7 +2530,7 @@
         <v>307</v>
       </c>
       <c r="T17" s="2">
-        <v>45629.28858796296</v>
+        <v>45629.28858768519</v>
       </c>
       <c r="U17" t="s">
         <v>363</v>
@@ -2539,7 +2539,7 @@
         <v>364</v>
       </c>
       <c r="W17" s="2">
-        <v>45629.28858796296</v>
+        <v>45629.28858768519</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2592,7 +2592,7 @@
         <v>302</v>
       </c>
       <c r="T18" s="2">
-        <v>45628.60702546296</v>
+        <v>45628.60702386574</v>
       </c>
       <c r="U18" t="s">
         <v>363</v>
@@ -2601,7 +2601,7 @@
         <v>364</v>
       </c>
       <c r="W18" s="2">
-        <v>45628.60702546296</v>
+        <v>45628.60702386574</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2654,7 +2654,7 @@
         <v>308</v>
       </c>
       <c r="T19" s="2">
-        <v>45628.63640046296</v>
+        <v>45628.6364021875</v>
       </c>
       <c r="U19" t="s">
         <v>363</v>
@@ -2663,7 +2663,7 @@
         <v>364</v>
       </c>
       <c r="W19" s="2">
-        <v>45628.63640046296</v>
+        <v>45628.6364021875</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2716,7 +2716,7 @@
         <v>309</v>
       </c>
       <c r="T20" s="2">
-        <v>45628.63619212963</v>
+        <v>45628.63618739583</v>
       </c>
       <c r="U20" t="s">
         <v>363</v>
@@ -2725,7 +2725,7 @@
         <v>364</v>
       </c>
       <c r="W20" s="2">
-        <v>45628.63619212963</v>
+        <v>45628.63618739583</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2778,7 +2778,7 @@
         <v>310</v>
       </c>
       <c r="T21" s="2">
-        <v>45628.63643518519</v>
+        <v>45628.63644035879</v>
       </c>
       <c r="U21" t="s">
         <v>363</v>
@@ -2787,7 +2787,7 @@
         <v>364</v>
       </c>
       <c r="W21" s="2">
-        <v>45628.63643518519</v>
+        <v>45628.63644035879</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2840,7 +2840,7 @@
         <v>311</v>
       </c>
       <c r="T22" s="2">
-        <v>45628.63668981481</v>
+        <v>45628.63668828704</v>
       </c>
       <c r="U22" t="s">
         <v>363</v>
@@ -2849,7 +2849,7 @@
         <v>364</v>
       </c>
       <c r="W22" s="2">
-        <v>45628.63668981481</v>
+        <v>45628.63668828704</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2902,7 +2902,7 @@
         <v>312</v>
       </c>
       <c r="T23" s="2">
-        <v>45636.28119212963</v>
+        <v>45636.28119013889</v>
       </c>
       <c r="U23" t="s">
         <v>363</v>
@@ -2911,7 +2911,7 @@
         <v>364</v>
       </c>
       <c r="W23" s="2">
-        <v>45636.28119212963</v>
+        <v>45636.28119013889</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2964,7 +2964,7 @@
         <v>313</v>
       </c>
       <c r="T24" s="2">
-        <v>45636.2812962963</v>
+        <v>45636.28129671296</v>
       </c>
       <c r="U24" t="s">
         <v>363</v>
@@ -2973,7 +2973,7 @@
         <v>364</v>
       </c>
       <c r="W24" s="2">
-        <v>45636.2812962963</v>
+        <v>45636.28129671296</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3026,7 +3026,7 @@
         <v>314</v>
       </c>
       <c r="T25" s="2">
-        <v>45637.33943287037</v>
+        <v>45637.33943045139</v>
       </c>
       <c r="U25" t="s">
         <v>363</v>
@@ -3035,7 +3035,7 @@
         <v>364</v>
       </c>
       <c r="W25" s="2">
-        <v>45637.33943287037</v>
+        <v>45637.33943045139</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3088,7 +3088,7 @@
         <v>315</v>
       </c>
       <c r="T26" s="2">
-        <v>45629.29771990741</v>
+        <v>45629.29772050926</v>
       </c>
       <c r="U26" t="s">
         <v>363</v>
@@ -3097,7 +3097,7 @@
         <v>364</v>
       </c>
       <c r="W26" s="2">
-        <v>45629.29771990741</v>
+        <v>45629.29772050926</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3150,7 +3150,7 @@
         <v>316</v>
       </c>
       <c r="T27" s="2">
-        <v>45629.35578703704</v>
+        <v>45629.35578547454</v>
       </c>
       <c r="U27" t="s">
         <v>363</v>
@@ -3159,7 +3159,7 @@
         <v>364</v>
       </c>
       <c r="W27" s="2">
-        <v>45629.35578703704</v>
+        <v>45629.35578547454</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3212,7 +3212,7 @@
         <v>317</v>
       </c>
       <c r="T28" s="2">
-        <v>45629.39032407408</v>
+        <v>45629.39032469907</v>
       </c>
       <c r="U28" t="s">
         <v>363</v>
@@ -3221,7 +3221,7 @@
         <v>364</v>
       </c>
       <c r="W28" s="2">
-        <v>45629.39032407408</v>
+        <v>45629.39032469907</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3274,7 +3274,7 @@
         <v>318</v>
       </c>
       <c r="T29" s="2">
-        <v>45629.39042824074</v>
+        <v>45629.39042611111</v>
       </c>
       <c r="U29" t="s">
         <v>363</v>
@@ -3283,7 +3283,7 @@
         <v>364</v>
       </c>
       <c r="W29" s="2">
-        <v>45629.39042824074</v>
+        <v>45629.39042611111</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3336,7 +3336,7 @@
         <v>319</v>
       </c>
       <c r="T30" s="2">
-        <v>45629.67251157408</v>
+        <v>45629.67251532408</v>
       </c>
       <c r="U30" t="s">
         <v>363</v>
@@ -3345,7 +3345,7 @@
         <v>364</v>
       </c>
       <c r="W30" s="2">
-        <v>45629.67251157408</v>
+        <v>45629.67251532408</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3398,7 +3398,7 @@
         <v>320</v>
       </c>
       <c r="T31" s="2">
-        <v>45636.336875</v>
+        <v>45636.33687622685</v>
       </c>
       <c r="U31" t="s">
         <v>363</v>
@@ -3407,7 +3407,7 @@
         <v>364</v>
       </c>
       <c r="W31" s="2">
-        <v>45636.336875</v>
+        <v>45636.33687622685</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3460,7 +3460,7 @@
         <v>321</v>
       </c>
       <c r="T32" s="2">
-        <v>45636.33836805556</v>
+        <v>45636.33836953704</v>
       </c>
       <c r="U32" t="s">
         <v>363</v>
@@ -3469,7 +3469,7 @@
         <v>364</v>
       </c>
       <c r="W32" s="2">
-        <v>45636.33836805556</v>
+        <v>45636.33836953704</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3522,7 +3522,7 @@
         <v>322</v>
       </c>
       <c r="T33" s="2">
-        <v>45636.35295138889</v>
+        <v>45636.35295689815</v>
       </c>
       <c r="U33" t="s">
         <v>363</v>
@@ -3531,7 +3531,7 @@
         <v>364</v>
       </c>
       <c r="W33" s="2">
-        <v>45636.35295138889</v>
+        <v>45636.35295689815</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3584,7 +3584,7 @@
         <v>323</v>
       </c>
       <c r="T34" s="2">
-        <v>45637.36201388889</v>
+        <v>45637.3620152662</v>
       </c>
       <c r="U34" t="s">
         <v>363</v>
@@ -3593,7 +3593,7 @@
         <v>364</v>
       </c>
       <c r="W34" s="2">
-        <v>45637.36201388889</v>
+        <v>45637.3620152662</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3646,7 +3646,7 @@
         <v>324</v>
       </c>
       <c r="T35" s="2">
-        <v>45637.32296296296</v>
+        <v>45637.32295964121</v>
       </c>
       <c r="U35" t="s">
         <v>363</v>
@@ -3655,7 +3655,7 @@
         <v>364</v>
       </c>
       <c r="W35" s="2">
-        <v>45637.32296296296</v>
+        <v>45637.32295964121</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3708,7 +3708,7 @@
         <v>325</v>
       </c>
       <c r="T36" s="2">
-        <v>45637.32858796296</v>
+        <v>45637.32859239583</v>
       </c>
       <c r="U36" t="s">
         <v>363</v>
@@ -3717,7 +3717,7 @@
         <v>364</v>
       </c>
       <c r="W36" s="2">
-        <v>45637.32858796296</v>
+        <v>45637.32859239583</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3770,7 +3770,7 @@
         <v>326</v>
       </c>
       <c r="T37" s="2">
-        <v>45636.47167824074</v>
+        <v>45636.47167560185</v>
       </c>
       <c r="U37" t="s">
         <v>363</v>
@@ -3779,7 +3779,7 @@
         <v>364</v>
       </c>
       <c r="W37" s="2">
-        <v>45636.47167824074</v>
+        <v>45636.47167560185</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3832,7 +3832,7 @@
         <v>327</v>
       </c>
       <c r="T38" s="2">
-        <v>45636.28114583333</v>
+        <v>45636.28114160879</v>
       </c>
       <c r="U38" t="s">
         <v>363</v>
@@ -3841,7 +3841,7 @@
         <v>364</v>
       </c>
       <c r="W38" s="2">
-        <v>45636.28114583333</v>
+        <v>45636.28114160879</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3894,7 +3894,7 @@
         <v>328</v>
       </c>
       <c r="T39" s="2">
-        <v>45636.0902662037</v>
+        <v>45636.09026181713</v>
       </c>
       <c r="U39" t="s">
         <v>363</v>
@@ -3903,7 +3903,7 @@
         <v>364</v>
       </c>
       <c r="W39" s="2">
-        <v>45636.0902662037</v>
+        <v>45636.09026181713</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3956,7 +3956,7 @@
         <v>329</v>
       </c>
       <c r="T40" s="2">
-        <v>45636.09030092593</v>
+        <v>45636.09030627314</v>
       </c>
       <c r="U40" t="s">
         <v>363</v>
@@ -3965,7 +3965,7 @@
         <v>364</v>
       </c>
       <c r="W40" s="2">
-        <v>45636.09030092593</v>
+        <v>45636.09030627314</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4018,7 +4018,7 @@
         <v>330</v>
       </c>
       <c r="T41" s="2">
-        <v>45636.28135416667</v>
+        <v>45636.28135072916</v>
       </c>
       <c r="U41" t="s">
         <v>363</v>
@@ -4027,7 +4027,7 @@
         <v>364</v>
       </c>
       <c r="W41" s="2">
-        <v>45636.28135416667</v>
+        <v>45636.28135072916</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4080,7 +4080,7 @@
         <v>331</v>
       </c>
       <c r="T42" s="2">
-        <v>45636.30454861111</v>
+        <v>45636.30454392361</v>
       </c>
       <c r="U42" t="s">
         <v>363</v>
@@ -4089,7 +4089,7 @@
         <v>364</v>
       </c>
       <c r="W42" s="2">
-        <v>45636.30454861111</v>
+        <v>45636.30454392361</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4142,7 +4142,7 @@
         <v>329</v>
       </c>
       <c r="T43" s="2">
-        <v>45636.30458333333</v>
+        <v>45636.30457976852</v>
       </c>
       <c r="U43" t="s">
         <v>363</v>
@@ -4151,7 +4151,7 @@
         <v>364</v>
       </c>
       <c r="W43" s="2">
-        <v>45636.30458333333</v>
+        <v>45636.30457976852</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4204,7 +4204,7 @@
         <v>332</v>
       </c>
       <c r="T44" s="2">
-        <v>45636.31480324074</v>
+        <v>45636.31480005787</v>
       </c>
       <c r="U44" t="s">
         <v>363</v>
@@ -4213,7 +4213,7 @@
         <v>364</v>
       </c>
       <c r="W44" s="2">
-        <v>45636.31480324074</v>
+        <v>45636.31480005787</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4266,7 +4266,7 @@
         <v>333</v>
       </c>
       <c r="T45" s="2">
-        <v>45636.31484953704</v>
+        <v>45636.31485255787</v>
       </c>
       <c r="U45" t="s">
         <v>363</v>
@@ -4275,7 +4275,7 @@
         <v>364</v>
       </c>
       <c r="W45" s="2">
-        <v>45636.31484953704</v>
+        <v>45636.31485255787</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4328,7 +4328,7 @@
         <v>322</v>
       </c>
       <c r="T46" s="2">
-        <v>45636.33965277778</v>
+        <v>45636.33965846065</v>
       </c>
       <c r="U46" t="s">
         <v>363</v>
@@ -4337,7 +4337,7 @@
         <v>364</v>
       </c>
       <c r="W46" s="2">
-        <v>45636.33965277778</v>
+        <v>45636.33965846065</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4390,7 +4390,7 @@
         <v>334</v>
       </c>
       <c r="T47" s="2">
-        <v>45636.33693287037</v>
+        <v>45636.33692815972</v>
       </c>
       <c r="U47" t="s">
         <v>363</v>
@@ -4399,7 +4399,7 @@
         <v>364</v>
       </c>
       <c r="W47" s="2">
-        <v>45636.33693287037</v>
+        <v>45636.33692815972</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4452,7 +4452,7 @@
         <v>335</v>
       </c>
       <c r="T48" s="2">
-        <v>45636.33840277778</v>
+        <v>45636.3384065162</v>
       </c>
       <c r="U48" t="s">
         <v>363</v>
@@ -4461,7 +4461,7 @@
         <v>364</v>
       </c>
       <c r="W48" s="2">
-        <v>45636.33840277778</v>
+        <v>45636.3384065162</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4514,7 +4514,7 @@
         <v>336</v>
       </c>
       <c r="T49" s="2">
-        <v>45637.33217592593</v>
+        <v>45637.332179375</v>
       </c>
       <c r="U49" t="s">
         <v>363</v>
@@ -4523,7 +4523,7 @@
         <v>364</v>
       </c>
       <c r="W49" s="2">
-        <v>45637.33217592593</v>
+        <v>45637.332179375</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4576,7 +4576,7 @@
         <v>337</v>
       </c>
       <c r="T50" s="2">
-        <v>45636.33969907407</v>
+        <v>45636.33970224537</v>
       </c>
       <c r="U50" t="s">
         <v>363</v>
@@ -4585,7 +4585,7 @@
         <v>364</v>
       </c>
       <c r="W50" s="2">
-        <v>45636.33969907407</v>
+        <v>45636.33970224537</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4638,7 +4638,7 @@
         <v>338</v>
       </c>
       <c r="T51" s="2">
-        <v>45636.35299768519</v>
+        <v>45636.35299421296</v>
       </c>
       <c r="U51" t="s">
         <v>363</v>
@@ -4647,7 +4647,7 @@
         <v>364</v>
       </c>
       <c r="W51" s="2">
-        <v>45636.35299768519</v>
+        <v>45636.35299421296</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4700,7 +4700,7 @@
         <v>339</v>
       </c>
       <c r="T52" s="2">
-        <v>45636.35538194444</v>
+        <v>45636.35538405093</v>
       </c>
       <c r="U52" t="s">
         <v>363</v>
@@ -4709,7 +4709,7 @@
         <v>364</v>
       </c>
       <c r="W52" s="2">
-        <v>45636.35538194444</v>
+        <v>45636.35538405093</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4762,7 +4762,7 @@
         <v>340</v>
       </c>
       <c r="T53" s="2">
-        <v>45636.35542824074</v>
+        <v>45636.35543168982</v>
       </c>
       <c r="U53" t="s">
         <v>363</v>
@@ -4771,7 +4771,7 @@
         <v>364</v>
       </c>
       <c r="W53" s="2">
-        <v>45636.35542824074</v>
+        <v>45636.35543168982</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4824,7 +4824,7 @@
         <v>341</v>
       </c>
       <c r="T54" s="2">
-        <v>45636.47172453703</v>
+        <v>45636.4717256713</v>
       </c>
       <c r="U54" t="s">
         <v>363</v>
@@ -4833,7 +4833,7 @@
         <v>364</v>
       </c>
       <c r="W54" s="2">
-        <v>45636.47172453703</v>
+        <v>45636.4717256713</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4874,7 +4874,7 @@
         <v>342</v>
       </c>
       <c r="T55" s="2">
-        <v>45636.60065972222</v>
+        <v>45636.60066290509</v>
       </c>
       <c r="U55" t="s">
         <v>363</v>
@@ -4883,7 +4883,7 @@
         <v>364</v>
       </c>
       <c r="W55" s="2">
-        <v>45636.60065972222</v>
+        <v>45636.60066290509</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4936,7 +4936,7 @@
         <v>343</v>
       </c>
       <c r="T56" s="2">
-        <v>45637.32302083333</v>
+        <v>45637.32301583333</v>
       </c>
       <c r="U56" t="s">
         <v>363</v>
@@ -4945,7 +4945,7 @@
         <v>364</v>
       </c>
       <c r="W56" s="2">
-        <v>45637.32302083333</v>
+        <v>45637.32301583333</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4998,7 +4998,7 @@
         <v>344</v>
       </c>
       <c r="T57" s="2">
-        <v>45637.32217592592</v>
+        <v>45637.32217396991</v>
       </c>
       <c r="U57" t="s">
         <v>363</v>
@@ -5007,7 +5007,7 @@
         <v>364</v>
       </c>
       <c r="W57" s="2">
-        <v>45637.32217592592</v>
+        <v>45637.32217396991</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5060,7 +5060,7 @@
         <v>345</v>
       </c>
       <c r="T58" s="2">
-        <v>45638.28074074074</v>
+        <v>45638.28074462963</v>
       </c>
       <c r="U58" t="s">
         <v>363</v>
@@ -5069,7 +5069,7 @@
         <v>364</v>
       </c>
       <c r="W58" s="2">
-        <v>45638.28074074074</v>
+        <v>45638.28074462963</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5122,7 +5122,7 @@
         <v>346</v>
       </c>
       <c r="T59" s="2">
-        <v>45637.32862268519</v>
+        <v>45637.32862715278</v>
       </c>
       <c r="U59" t="s">
         <v>363</v>
@@ -5131,7 +5131,7 @@
         <v>364</v>
       </c>
       <c r="W59" s="2">
-        <v>45637.32862268519</v>
+        <v>45637.32862715278</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5184,7 +5184,7 @@
         <v>347</v>
       </c>
       <c r="T60" s="2">
-        <v>45637.32879629629</v>
+        <v>45637.32879635417</v>
       </c>
       <c r="U60" t="s">
         <v>363</v>
@@ -5193,7 +5193,7 @@
         <v>364</v>
       </c>
       <c r="W60" s="2">
-        <v>45637.32879629629</v>
+        <v>45637.32879635417</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5246,7 +5246,7 @@
         <v>348</v>
       </c>
       <c r="T61" s="2">
-        <v>45637.33619212963</v>
+        <v>45637.33619611111</v>
       </c>
       <c r="U61" t="s">
         <v>363</v>
@@ -5255,7 +5255,7 @@
         <v>364</v>
       </c>
       <c r="W61" s="2">
-        <v>45637.33619212963</v>
+        <v>45637.33619611111</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5308,7 +5308,7 @@
         <v>349</v>
       </c>
       <c r="T62" s="2">
-        <v>45637.33222222222</v>
+        <v>45637.33221854167</v>
       </c>
       <c r="U62" t="s">
         <v>363</v>
@@ -5317,7 +5317,7 @@
         <v>364</v>
       </c>
       <c r="W62" s="2">
-        <v>45637.33222222222</v>
+        <v>45637.33221854167</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5370,7 +5370,7 @@
         <v>350</v>
       </c>
       <c r="T63" s="2">
-        <v>45637.33625</v>
+        <v>45637.33624428241</v>
       </c>
       <c r="U63" t="s">
         <v>363</v>
@@ -5379,7 +5379,7 @@
         <v>364</v>
       </c>
       <c r="W63" s="2">
-        <v>45637.33625</v>
+        <v>45637.33624428241</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5432,7 +5432,7 @@
         <v>351</v>
       </c>
       <c r="T64" s="2">
-        <v>45637.35375</v>
+        <v>45637.35375495371</v>
       </c>
       <c r="U64" t="s">
         <v>363</v>
@@ -5441,7 +5441,7 @@
         <v>364</v>
       </c>
       <c r="W64" s="2">
-        <v>45637.35375</v>
+        <v>45637.35375495371</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5494,7 +5494,7 @@
         <v>352</v>
       </c>
       <c r="T65" s="2">
-        <v>45637.33947916667</v>
+        <v>45637.33948193287</v>
       </c>
       <c r="U65" t="s">
         <v>363</v>
@@ -5503,7 +5503,7 @@
         <v>364</v>
       </c>
       <c r="W65" s="2">
-        <v>45637.33947916667</v>
+        <v>45637.33948193287</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5556,7 +5556,7 @@
         <v>353</v>
       </c>
       <c r="T66" s="2">
-        <v>45637.34152777777</v>
+        <v>45637.34152277778</v>
       </c>
       <c r="U66" t="s">
         <v>363</v>
@@ -5565,7 +5565,7 @@
         <v>364</v>
       </c>
       <c r="W66" s="2">
-        <v>45637.34152777777</v>
+        <v>45637.34152277778</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5618,7 +5618,7 @@
         <v>354</v>
       </c>
       <c r="T67" s="2">
-        <v>45637.35379629629</v>
+        <v>45637.35380003473</v>
       </c>
       <c r="U67" t="s">
         <v>363</v>
@@ -5627,7 +5627,7 @@
         <v>364</v>
       </c>
       <c r="W67" s="2">
-        <v>45637.35379629629</v>
+        <v>45637.35380003473</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5680,7 +5680,7 @@
         <v>355</v>
       </c>
       <c r="T68" s="2">
-        <v>45637.363125</v>
+        <v>45637.36312291666</v>
       </c>
       <c r="U68" t="s">
         <v>363</v>
@@ -5689,7 +5689,7 @@
         <v>364</v>
       </c>
       <c r="W68" s="2">
-        <v>45637.363125</v>
+        <v>45637.36312291666</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5742,7 +5742,7 @@
         <v>356</v>
       </c>
       <c r="T69" s="2">
-        <v>45637.38954861111</v>
+        <v>45637.38954289352</v>
       </c>
       <c r="U69" t="s">
         <v>363</v>
@@ -5751,7 +5751,7 @@
         <v>364</v>
       </c>
       <c r="W69" s="2">
-        <v>45637.38954861111</v>
+        <v>45637.38954289352</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5804,7 +5804,7 @@
         <v>357</v>
       </c>
       <c r="T70" s="2">
-        <v>45637.36208333333</v>
+        <v>45637.36208016203</v>
       </c>
       <c r="U70" t="s">
         <v>363</v>
@@ -5813,7 +5813,7 @@
         <v>364</v>
       </c>
       <c r="W70" s="2">
-        <v>45637.36208333333</v>
+        <v>45637.36208016203</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5866,7 +5866,7 @@
         <v>358</v>
       </c>
       <c r="T71" s="2">
-        <v>45637.38960648148</v>
+        <v>45637.38960511574</v>
       </c>
       <c r="U71" t="s">
         <v>363</v>
@@ -5875,7 +5875,7 @@
         <v>364</v>
       </c>
       <c r="W71" s="2">
-        <v>45637.38960648148</v>
+        <v>45637.38960511574</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5928,7 +5928,7 @@
         <v>359</v>
       </c>
       <c r="T72" s="2">
-        <v>45637.40377314815</v>
+        <v>45637.40377224537</v>
       </c>
       <c r="U72" t="s">
         <v>363</v>
@@ -5937,7 +5937,7 @@
         <v>364</v>
       </c>
       <c r="W72" s="2">
-        <v>45637.40377314815</v>
+        <v>45637.40377224537</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5990,7 +5990,7 @@
         <v>360</v>
       </c>
       <c r="T73" s="2">
-        <v>45638.28091435185</v>
+        <v>45638.2809124074</v>
       </c>
       <c r="U73" t="s">
         <v>363</v>
@@ -5999,7 +5999,7 @@
         <v>364</v>
       </c>
       <c r="W73" s="2">
-        <v>45638.28091435185</v>
+        <v>45638.2809124074</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6052,7 +6052,7 @@
         <v>361</v>
       </c>
       <c r="T74" s="2">
-        <v>45638.28121527778</v>
+        <v>45638.28121951389</v>
       </c>
       <c r="U74" t="s">
         <v>363</v>
@@ -6061,7 +6061,7 @@
         <v>364</v>
       </c>
       <c r="W74" s="2">
-        <v>45638.28121527778</v>
+        <v>45638.28121951389</v>
       </c>
     </row>
     <row r="75" spans="1:23">
